--- a/src/output/template/default.xlsx
+++ b/src/output/template/default.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>星期一</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>星期二</t>
@@ -360,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -447,6 +444,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -466,9 +469,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -478,13 +482,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -493,6 +490,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -508,14 +532,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -525,59 +575,6 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -659,49 +656,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,67 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,6 +993,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="30"/>
       </bottom>
@@ -1007,6 +1013,30 @@
       <top/>
       <bottom style="thick">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,41 +1056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1093,9 +1088,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,149 +1100,149 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,7 +1789,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:O20"/>
+      <selection activeCell="H9" sqref="H9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1918,9 +1915,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -1950,7 +1945,7 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:16">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -1958,9 +1953,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -1990,7 +1983,7 @@
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:16">
       <c r="A9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -1998,9 +1991,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -2030,7 +2021,7 @@
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:16">
       <c r="A11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -2038,9 +2029,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -2070,7 +2059,7 @@
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:16">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -2078,9 +2067,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2110,10 +2097,10 @@
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:16">
       <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2150,7 +2137,7 @@
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:16">
       <c r="A17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2188,10 +2175,10 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:16">
       <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2228,7 +2215,7 @@
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:16">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2248,10 +2235,10 @@
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:16">
       <c r="A22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2264,7 +2251,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="30"/>
       <c r="M22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2275,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2297,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -2319,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -2378,7 +2365,7 @@
     </row>
     <row r="28" ht="46.5" customHeight="1" spans="1:16">
       <c r="A28" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="23"/>
@@ -2398,7 +2385,7 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:16">
       <c r="A29" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
